--- a/course4/СтатКритерии.xlsx
+++ b/course4/СтатКритерии.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
